--- a/melon.xlsx
+++ b/melon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsun/Library/Mobile Documents/com~apple~CloudDocs/Desktop/2018-2/디자인사고와 커뮤니케이션/Processing/sketch_P3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsun/sketch_P3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9934BE9-CC5C-6C47-BF7C-E982DA4DCB77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383CA932-5267-334A-B4D9-FD4859529929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="16800" windowHeight="20540"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="melon" sheetId="1" r:id="rId1"/>
@@ -6085,7 +6085,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -7033,11 +7033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A1231" workbookViewId="0">
+      <selection activeCell="G1243" sqref="G1243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15359,7 +15359,7 @@
         <v>4</v>
       </c>
       <c r="H320">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -61653,5 +61653,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>